--- a/수집 데이터.xlsx
+++ b/수집 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\genebir\airflow_celery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0D2A59-E9FB-4E91-A29F-F906CB1CF0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A101B1-E8C6-4110-83DE-39453B105F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="495" windowWidth="23715" windowHeight="13050" xr2:uid="{BC7FFA6D-4113-43F2-802B-4B8598CDE29A}"/>
+    <workbookView xWindow="-22008" yWindow="744" windowWidth="21636" windowHeight="11112" xr2:uid="{BC7FFA6D-4113-43F2-802B-4B8598CDE29A}"/>
   </bookViews>
   <sheets>
     <sheet name="수집데이터" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,14 @@
   </si>
   <si>
     <t>stationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드성테이블 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +294,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -314,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -399,13 +425,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,7 +473,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +497,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0567379-1261-4959-87FD-282E229E95FC}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,6 +808,7 @@
     <col min="3" max="3" width="59.375" customWidth="1"/>
     <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -999,7 +1039,7 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1015,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1025,17 +1065,17 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1055,7 +1095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1074,8 +1114,11 @@
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1095,7 +1138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1115,7 +1158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1135,7 +1178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1155,7 +1198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -1175,7 +1218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -1184,6 +1227,11 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
